--- a/cluster_cost.xlsx
+++ b/cluster_cost.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidwalker/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidwalker/projects/RBC/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="B1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,51 +614,51 @@
         <v>3</v>
       </c>
       <c r="D4" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5">
-        <f>_xlfn.FLOOR.MATH((E$3/$D4))</f>
+        <f t="shared" ref="E4:O4" si="0">_xlfn.FLOOR.MATH((E$3/$D4))</f>
         <v>2</v>
       </c>
       <c r="F4" s="5">
-        <f>_xlfn.FLOOR.MATH((F$3/$D4))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G4" s="5">
-        <f>_xlfn.FLOOR.MATH((G$3/$D4))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H4" s="17">
-        <f>_xlfn.FLOOR.MATH((H$3/$D4))</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="I4" s="5">
-        <f>_xlfn.FLOOR.MATH((I$3/$D4))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J4" s="5">
-        <f>_xlfn.FLOOR.MATH((J$3/$D4))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K4" s="5">
-        <f>_xlfn.FLOOR.MATH((K$3/$D4))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L4" s="17">
-        <f>_xlfn.FLOOR.MATH((L$3/$D4))</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M4" s="5">
-        <f>_xlfn.FLOOR.MATH((M$3/$D4))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N4" s="5">
-        <f>_xlfn.FLOOR.MATH((N$3/$D4))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O4" s="20">
-        <f>_xlfn.FLOOR.MATH((O$3/$D4))</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
@@ -670,48 +670,48 @@
         <v>4</v>
       </c>
       <c r="E5" s="5">
-        <f>E$4*$D5</f>
+        <f t="shared" ref="E5:O6" si="1">E$4*$D5</f>
         <v>8</v>
       </c>
       <c r="F5" s="5">
-        <f>F$4*$D5</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G5" s="5">
-        <f>G$4*$D5</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H5" s="17">
-        <f>H$4*$D5</f>
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I5" s="5">
-        <f>I$4*$D5</f>
+      <c r="J5" s="5">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J5" s="5">
-        <f>J$4*$D5</f>
+      <c r="K5" s="5">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K5" s="5">
-        <f>K$4*$D5</f>
+      <c r="L5" s="17">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L5" s="17">
-        <f>L$4*$D5</f>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="M5" s="5">
-        <f>M$4*$D5</f>
+      <c r="N5" s="5">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="N5" s="5">
-        <f>N$4*$D5</f>
+      <c r="O5" s="20">
+        <f t="shared" si="1"/>
         <v>16</v>
-      </c>
-      <c r="O5" s="20">
-        <f>O$4*$D5</f>
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
@@ -723,48 +723,48 @@
         <v>1</v>
       </c>
       <c r="E6" s="11">
-        <f>E$4*$D6</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F6" s="11">
-        <f>F$4*$D6</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G6" s="11">
-        <f>G$4*$D6</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H6" s="23">
-        <f>H$4*$D6</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I6" s="11">
-        <f>I$4*$D6</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J6" s="11">
-        <f>J$4*$D6</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K6" s="11">
-        <f>K$4*$D6</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L6" s="23">
-        <f>L$4*$D6</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="M6" s="11">
-        <f>M$4*$D6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N6" s="11">
-        <f>N$4*$D6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O6" s="22">
-        <f>O$4*$D6</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -778,47 +778,47 @@
         <v>9</v>
       </c>
       <c r="E7" s="10">
-        <f>_xlfn.FLOOR.MATH((E$3/$D7))</f>
+        <f t="shared" ref="E7:O7" si="2">_xlfn.FLOOR.MATH((E$3/$D7))</f>
         <v>8</v>
       </c>
       <c r="F7" s="10">
-        <f>_xlfn.FLOOR.MATH((F$3/$D7))</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G7" s="10">
-        <f>_xlfn.FLOOR.MATH((G$3/$D7))</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="H7" s="10">
-        <f>_xlfn.FLOOR.MATH((H$3/$D7))</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I7" s="10">
-        <f>_xlfn.FLOOR.MATH((I$3/$D7))</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="J7" s="10">
-        <f>_xlfn.FLOOR.MATH((J$3/$D7))</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="K7" s="10">
-        <f>_xlfn.FLOOR.MATH((K$3/$D7))</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="L7" s="10">
-        <f>_xlfn.FLOOR.MATH((L$3/$D7))</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="M7" s="10">
-        <f>_xlfn.FLOOR.MATH((M$3/$D7))</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="N7" s="10">
-        <f>_xlfn.FLOOR.MATH((N$3/$D7))</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="O7" s="13">
-        <f>_xlfn.FLOOR.MATH((O$3/$D7))</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -831,47 +831,47 @@
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <f>E$7*$D8</f>
+        <f t="shared" ref="E8:O9" si="3">E$7*$D8</f>
         <v>8</v>
       </c>
       <c r="F8" s="5">
-        <f>F$7*$D8</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G8" s="5">
-        <f>G$7*$D8</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H8" s="5">
-        <f>H$7*$D8</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I8" s="5">
-        <f>I$7*$D8</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="J8" s="5">
-        <f>J$7*$D8</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="K8" s="5">
-        <f>K$7*$D8</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="L8" s="5">
-        <f>L$7*$D8</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="M8" s="5">
-        <f>M$7*$D8</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="N8" s="5">
-        <f>N$7*$D8</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="O8" s="6">
-        <f>O$7*$D8</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -884,47 +884,47 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="11">
-        <f>E$7*$D9</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F9" s="11">
-        <f>F$7*$D9</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G9" s="11">
-        <f>G$7*$D9</f>
+        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
       <c r="H9" s="11">
-        <f>H$7*$D9</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I9" s="11">
-        <f>I$7*$D9</f>
+        <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
       <c r="J9" s="11">
-        <f>J$7*$D9</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K9" s="11">
-        <f>K$7*$D9</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="L9" s="11">
-        <f>L$7*$D9</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M9" s="11">
-        <f>M$7*$D9</f>
+        <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
       <c r="N9" s="11">
-        <f>N$7*$D9</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="O9" s="15">
-        <f>O$7*$D9</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -939,47 +939,47 @@
         <v>15</v>
       </c>
       <c r="E10" s="10">
-        <f>_xlfn.FLOOR.MATH((E$3/$D10))</f>
+        <f t="shared" ref="E10:O10" si="4">_xlfn.FLOOR.MATH((E$3/$D10))</f>
         <v>5</v>
       </c>
       <c r="F10" s="16">
-        <f>_xlfn.FLOOR.MATH((F$3/$D10))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G10" s="10">
-        <f>_xlfn.FLOOR.MATH((G$3/$D10))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H10" s="16">
-        <f>_xlfn.FLOOR.MATH((H$3/$D10))</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I10" s="16">
-        <f>_xlfn.FLOOR.MATH((I$3/$D10))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="J10" s="10">
-        <f>_xlfn.FLOOR.MATH((J$3/$D10))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="K10" s="16">
-        <f>_xlfn.FLOOR.MATH((K$3/$D10))</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="L10" s="16">
-        <f>_xlfn.FLOOR.MATH((L$3/$D10))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M10" s="10">
-        <f>_xlfn.FLOOR.MATH((M$3/$D10))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="N10" s="16">
-        <f>_xlfn.FLOOR.MATH((N$3/$D10))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="O10" s="19">
-        <f>_xlfn.FLOOR.MATH((O$3/$D10))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -992,47 +992,47 @@
         <v>4</v>
       </c>
       <c r="E11" s="5">
-        <f>E$10*$D11</f>
+        <f t="shared" ref="E11:O12" si="5">E$10*$D11</f>
         <v>20</v>
       </c>
       <c r="F11" s="17">
-        <f>F$10*$D11</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="G11" s="5">
-        <f>G$10*$D11</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="H11" s="17">
-        <f>H$10*$D11</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="I11" s="17">
-        <f>I$10*$D11</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="J11" s="5">
-        <f>J$10*$D11</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="K11" s="17">
-        <f>K$10*$D11</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="L11" s="17">
-        <f>L$10*$D11</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="M11" s="5">
-        <f>M$10*$D11</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="N11" s="17">
-        <f>N$10*$D11</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="O11" s="20">
-        <f>O$10*$D11</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
@@ -1045,47 +1045,47 @@
         <v>0.5</v>
       </c>
       <c r="E12" s="11">
-        <f>E$10*$D12</f>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
       <c r="F12" s="23">
-        <f>F$10*$D12</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G12" s="11">
-        <f>G$10*$D12</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H12" s="23">
-        <f>H$10*$D12</f>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="I12" s="23">
-        <f>I$10*$D12</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J12" s="11">
-        <f>J$10*$D12</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K12" s="23">
-        <f>K$10*$D12</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="L12" s="23">
-        <f>L$10*$D12</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="M12" s="11">
-        <f>M$10*$D12</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N12" s="23">
-        <f>N$10*$D12</f>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="O12" s="22">
-        <f>O$10*$D12</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -1100,47 +1100,47 @@
         <v>20</v>
       </c>
       <c r="E13" s="10">
-        <f>_xlfn.FLOOR.MATH((E$3/$D13))</f>
+        <f t="shared" ref="E13:O13" si="6">_xlfn.FLOOR.MATH((E$3/$D13))</f>
         <v>4</v>
       </c>
       <c r="F13" s="10">
-        <f>_xlfn.FLOOR.MATH((F$3/$D13))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G13" s="16">
-        <f>_xlfn.FLOOR.MATH((G$3/$D13))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H13" s="10">
-        <f>_xlfn.FLOOR.MATH((H$3/$D13))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I13" s="16">
-        <f>_xlfn.FLOOR.MATH((I$3/$D13))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J13" s="10">
-        <f>_xlfn.FLOOR.MATH((J$3/$D13))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K13" s="16">
-        <f>_xlfn.FLOOR.MATH((K$3/$D13))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="L13" s="10">
-        <f>_xlfn.FLOOR.MATH((L$3/$D13))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M13" s="16">
-        <f>_xlfn.FLOOR.MATH((M$3/$D13))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="N13" s="10">
-        <f>_xlfn.FLOOR.MATH((N$3/$D13))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="O13" s="19">
-        <f>_xlfn.FLOOR.MATH((O$3/$D13))</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -1153,47 +1153,47 @@
         <v>4</v>
       </c>
       <c r="E14" s="5">
-        <f>E$13*$D14</f>
+        <f t="shared" ref="E14:O15" si="7">E$13*$D14</f>
         <v>16</v>
       </c>
       <c r="F14" s="5">
-        <f>F$13*$D14</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="G14" s="17">
-        <f>G$13*$D14</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="H14" s="5">
-        <f>H$13*$D14</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="I14" s="17">
-        <f>I$13*$D14</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="J14" s="5">
-        <f>J$13*$D14</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="K14" s="17">
-        <f>K$13*$D14</f>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="L14" s="5">
-        <f>L$13*$D14</f>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="M14" s="17">
-        <f>M$13*$D14</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="N14" s="5">
-        <f>N$13*$D14</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="O14" s="20">
-        <f>O$13*$D14</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
     </row>
@@ -1206,47 +1206,47 @@
         <v>1</v>
       </c>
       <c r="E15" s="11">
-        <f>E$13*$D15</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="F15" s="11">
-        <f>F$13*$D15</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="G15" s="23">
-        <f>G$13*$D15</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H15" s="11">
-        <f>H$13*$D15</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I15" s="23">
-        <f>I$13*$D15</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J15" s="11">
-        <f>J$13*$D15</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K15" s="23">
-        <f>K$13*$D15</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="L15" s="11">
-        <f>L$13*$D15</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="M15" s="23">
-        <f>M$13*$D15</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N15" s="11">
-        <f>N$13*$D15</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="O15" s="22">
-        <f>O$13*$D15</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
@@ -1261,47 +1261,47 @@
         <v>30</v>
       </c>
       <c r="E16" s="10">
-        <f>_xlfn.FLOOR.MATH((E$3/$D16))</f>
+        <f t="shared" ref="E16:O16" si="8">_xlfn.FLOOR.MATH((E$3/$D16))</f>
         <v>2</v>
       </c>
       <c r="F16" s="16">
-        <f>_xlfn.FLOOR.MATH((F$3/$D16))</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="G16" s="10">
-        <f>_xlfn.FLOOR.MATH((G$3/$D16))</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H16" s="10">
-        <f>_xlfn.FLOOR.MATH((H$3/$D16))</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I16" s="16">
-        <f>_xlfn.FLOOR.MATH((I$3/$D16))</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="J16" s="10">
-        <f>_xlfn.FLOOR.MATH((J$3/$D16))</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K16" s="10">
-        <f>_xlfn.FLOOR.MATH((K$3/$D16))</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="L16" s="16">
-        <f>_xlfn.FLOOR.MATH((L$3/$D16))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="M16" s="10">
-        <f>_xlfn.FLOOR.MATH((M$3/$D16))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="N16" s="10">
-        <f>_xlfn.FLOOR.MATH((N$3/$D16))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="O16" s="19">
-        <f>_xlfn.FLOOR.MATH((O$3/$D16))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -1314,47 +1314,47 @@
         <v>4</v>
       </c>
       <c r="E17" s="5">
-        <f>E$16*$D17</f>
+        <f t="shared" ref="E17:O18" si="9">E$16*$D17</f>
         <v>8</v>
       </c>
       <c r="F17" s="17">
-        <f>F$16*$D17</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="G17" s="5">
-        <f>G$16*$D17</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="H17" s="5">
-        <f>H$16*$D17</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I17" s="17">
-        <f>I$16*$D17</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="J17" s="5">
-        <f>J$16*$D17</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="K17" s="5">
-        <f>K$16*$D17</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="L17" s="17">
-        <f>L$16*$D17</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="M17" s="5">
-        <f>M$16*$D17</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="N17" s="5">
-        <f>N$16*$D17</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="O17" s="20">
-        <f>O$16*$D17</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
@@ -1367,47 +1367,47 @@
         <v>2</v>
       </c>
       <c r="E18" s="8">
-        <f>E$16*$D18</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="F18" s="18">
-        <f>F$16*$D18</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G18" s="8">
-        <f>G$16*$D18</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="H18" s="8">
-        <f>H$16*$D18</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="I18" s="18">
-        <f>I$16*$D18</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="J18" s="8">
-        <f>J$16*$D18</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="K18" s="8">
-        <f>K$16*$D18</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="L18" s="18">
-        <f>L$16*$D18</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="M18" s="8">
-        <f>M$16*$D18</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="N18" s="8">
-        <f>N$16*$D18</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O18" s="21">
-        <f>O$16*$D18</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
     </row>
